--- a/biology/Origine et évolution du vivant/Systématique_évolutionniste/Systématique_évolutionniste.xlsx
+++ b/biology/Origine et évolution du vivant/Systématique_évolutionniste/Systématique_évolutionniste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A9matique_%C3%A9volutionniste</t>
+          <t>Systématique_évolutionniste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La systématique évolutionniste, ou simplement évolutionnisme[1],[2], appelée aussi systématique évolutive[3],[4], éclectique[5],[6] ou synthétiste[7], est une école de systématique, et plus particulièrement de taxonomie (désignée dans ce cas par taxinomie ou taxonomie évolutive[8],[9],[10]), qui a pour finalité d'établir une classification phylogénétique tenant compte à la fois de la généalogie des espèces et de leurs distances phénotypiques (notamment leurs différents plans d'organisation)[1].
-L'évolutionnisme est représenté par un arbre phylogénétique, ou phylogramme[11].
-En biologie, le terme « évolutionnisme » est également utilisé pour désigner l'ensemble des théories de l'évolution (darwinisme, mutationnisme, néodarwinisme, neutralisme…) expliquant la transformation des espèces au cours des âges[12].
-Il ne faut pas confondre ces deux usages, même si la distinction ne se révèle pas simple dans la mesure où, dans l'arbre des idées de la pensée « évolutionniste », figurent des savants qui sont à la fois systématiciens et théoriciens de l'évolution[13].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique évolutionniste, ou simplement évolutionnisme appelée aussi systématique évolutive éclectique, ou synthétiste, est une école de systématique, et plus particulièrement de taxonomie (désignée dans ce cas par taxinomie ou taxonomie évolutive), qui a pour finalité d'établir une classification phylogénétique tenant compte à la fois de la généalogie des espèces et de leurs distances phénotypiques (notamment leurs différents plans d'organisation).
+L'évolutionnisme est représenté par un arbre phylogénétique, ou phylogramme.
+En biologie, le terme « évolutionnisme » est également utilisé pour désigner l'ensemble des théories de l'évolution (darwinisme, mutationnisme, néodarwinisme, neutralisme…) expliquant la transformation des espèces au cours des âges.
+Il ne faut pas confondre ces deux usages, même si la distinction ne se révèle pas simple dans la mesure où, dans l'arbre des idées de la pensée « évolutionniste », figurent des savants qui sont à la fois systématiciens et théoriciens de l'évolution.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A9matique_%C3%A9volutionniste</t>
+          <t>Systématique_évolutionniste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,16 +528,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Différences avec le cladisme
-L'évolutionnisme, contrairement au cladisme, ne voit aucun inconvénient à l'utilisation de taxons paraphylétiques dans l'établissement de la classification[14]. Ainsi la taxonomie évolutionniste fait une distinction claire entre taxon, clade et grade, termes qui renvoient à trois concepts différents mais non exclusifs[15]. Dans la pratique évolutionniste, la distinction entre groupe ancestral et groupe dérivé est également essentielle[16].
-La classification phylogénétique élaborée par les systématiciens évolutionnistes est souvent appelée classification « darwinienne »[15],[14] ou « gradiste »[17].
-Lamarck et Haeckel sont les figures notables du courant gradiste[18],[19].
-Lamarck est considéré comme le premier systématicien « éclectique »[20].
-Les dendrogrammes produits pour représenter graphiquement une classification évolutionniste sont dits « darwiniens » ou « haeckeliens »[14].
-Différences avec le phénéticisme
-La systématique phénéticiste ne s'occupe pas du lien de la classification avec l'évolution. Tous les caractères (continus ou discontinus) anatomiques, morphologiques, biochimiques, etc. ont la même importance et le phénéticiste ne s'intéresse pas à leur ancienneté. À partir du nombre de caractères copartagés par deux ou plusieurs taxons, il compare la dissimilitude des organismes (parfois appréhendée de manière statistique), calcule des indices de dissimilarité et produit des arbres appelés phénogrammes[21].
-Controverses de terminologie
-Cladisme et évolutionnisme s'affrontent sur le sens exact à donner à des termes aussi importants que phylogénie ou monophylie[22],[7],[18]. Hors contexte, ces mots sont donc ambigus.
+          <t>Différences avec le cladisme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évolutionnisme, contrairement au cladisme, ne voit aucun inconvénient à l'utilisation de taxons paraphylétiques dans l'établissement de la classification. Ainsi la taxonomie évolutionniste fait une distinction claire entre taxon, clade et grade, termes qui renvoient à trois concepts différents mais non exclusifs. Dans la pratique évolutionniste, la distinction entre groupe ancestral et groupe dérivé est également essentielle.
+La classification phylogénétique élaborée par les systématiciens évolutionnistes est souvent appelée classification « darwinienne », ou « gradiste ».
+Lamarck et Haeckel sont les figures notables du courant gradiste,.
+Lamarck est considéré comme le premier systématicien « éclectique ».
+Les dendrogrammes produits pour représenter graphiquement une classification évolutionniste sont dits « darwiniens » ou « haeckeliens ».
 </t>
         </is>
       </c>
@@ -536,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A9matique_%C3%A9volutionniste</t>
+          <t>Systématique_évolutionniste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,13 +564,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aspects philosophiques</t>
+          <t>La classification évolutionniste</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le cladisme a été fortement influencé par le courant structuraliste[23] et par l'épistémologie de Karl Popper, cela en fait donc une école de pensée à la fois nominaliste et métaphysique. De plus, elle semble osciller entre un matérialisme naïf (process cladism) et un idéalisme affirmé (pattern cladism).
-Au contraire, l'évolutionnisme est ancré dans le matérialisme et le réalisme scientifique[18]. On peut distinguer assez clairement ses balbutiements métaphysiques au cours du XXe siècle de son développement moderne qui prend une tournure plutôt dialectique[18],[24].
+          <t>Différences avec le phénéticisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique phénéticiste ne s'occupe pas du lien de la classification avec l'évolution. Tous les caractères (continus ou discontinus) anatomiques, morphologiques, biochimiques, etc. ont la même importance et le phénéticiste ne s'intéresse pas à leur ancienneté. À partir du nombre de caractères copartagés par deux ou plusieurs taxons, il compare la dissimilitude des organismes (parfois appréhendée de manière statistique), calcule des indices de dissimilarité et produit des arbres appelés phénogrammes.
 </t>
         </is>
       </c>
@@ -568,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syst%C3%A9matique_%C3%A9volutionniste</t>
+          <t>Systématique_évolutionniste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +601,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>La classification évolutionniste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Controverses de terminologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladisme et évolutionnisme s'affrontent sur le sens exact à donner à des termes aussi importants que phylogénie ou monophylie. Hors contexte, ces mots sont donc ambigus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Systématique_évolutionniste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A9matique_%C3%A9volutionniste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspects philosophiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladisme a été fortement influencé par le courant structuraliste et par l'épistémologie de Karl Popper, cela en fait donc une école de pensée à la fois nominaliste et métaphysique. De plus, elle semble osciller entre un matérialisme naïf (process cladism) et un idéalisme affirmé (pattern cladism).
+Au contraire, l'évolutionnisme est ancré dans le matérialisme et le réalisme scientifique. On peut distinguer assez clairement ses balbutiements métaphysiques au cours du XXe siècle de son développement moderne qui prend une tournure plutôt dialectique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Systématique_évolutionniste</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A9matique_%C3%A9volutionniste</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Représentants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école de systématique évolutionniste compte de nombreux biologistes célèbres.
 Évolutionnistes du XIXe siècle (décédés avant 1900) :
